--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3808.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3808.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.692002028662286</v>
+        <v>5.236445426940918</v>
       </c>
       <c r="B1">
-        <v>1.998057647237377</v>
+        <v>6.718282699584961</v>
       </c>
       <c r="C1">
-        <v>2.610102604215297</v>
+        <v>6.538310050964355</v>
       </c>
       <c r="D1">
-        <v>5.204650666715501</v>
+        <v>2.298135042190552</v>
       </c>
       <c r="E1">
-        <v>0.7771821090266334</v>
+        <v>1.482321619987488</v>
       </c>
     </row>
   </sheetData>
